--- a/data/country.xlsx
+++ b/data/country.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">administrative</t>
   </si>
   <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
+    <t xml:space="preserve">Кыргызстан</t>
   </si>
 </sst>
 </file>
@@ -112,9 +112,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -130,120 +134,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>330</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>330</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -257,7 +147,64 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>640</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -275,11 +222,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>640</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
